--- a/Accounting_FormsFillingAssistant_Tests/test_Resources/Test_DB_2.xlsx
+++ b/Accounting_FormsFillingAssistant_Tests/test_Resources/Test_DB_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EkaterinaSkibina\source\repos\Accounting_FormsFillingAssistant\Accounting_FormsFillingAssistant_Tests\test_Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B5CED-1FB5-4DB7-962F-952250800226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74ECEAEE-CEF4-4708-B868-42744ADFE85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1044" yWindow="2496" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{CF20FDDA-53BB-43C5-A81B-400DB4A1BBFE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -113,10 +113,19 @@
     <t>Город</t>
   </si>
   <si>
-    <t>Берлин</t>
-  </si>
-  <si>
     <t>Москва</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Банк Super</t>
+  </si>
+  <si>
+    <t>98765467890</t>
+  </si>
+  <si>
+    <t>654398765689</t>
   </si>
 </sst>
 </file>
@@ -617,7 +626,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BB0563-C5D8-4F1A-AC52-91F6D5C15025}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -625,7 +634,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="8.88671875" style="1"/>
     <col min="4" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -637,7 +646,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -654,7 +663,7 @@
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -671,14 +680,31 @@
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Accounting_FormsFillingAssistant_Tests/test_Resources/Test_DB_2.xlsx
+++ b/Accounting_FormsFillingAssistant_Tests/test_Resources/Test_DB_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EkaterinaSkibina\source\repos\Accounting_FormsFillingAssistant\Accounting_FormsFillingAssistant_Tests\test_Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74ECEAEE-CEF4-4708-B868-42744ADFE85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C349056-79F2-41A6-BE5B-A14BD8744A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1044" yWindow="2496" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{CF20FDDA-53BB-43C5-A81B-400DB4A1BBFE}"/>
   </bookViews>
@@ -95,25 +95,25 @@
     <t>1234567890</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Банк 2</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>098767896</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
     <t>654323456789</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Банк 2</t>
-  </si>
-  <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>098767896</t>
-  </si>
-  <si>
-    <t>Город</t>
-  </si>
-  <si>
-    <t>Москва</t>
   </si>
   <si>
     <t>32</t>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -664,30 +664,30 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>29</v>

--- a/Accounting_FormsFillingAssistant_Tests/test_Resources/Test_DB_2.xlsx
+++ b/Accounting_FormsFillingAssistant_Tests/test_Resources/Test_DB_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EkaterinaSkibina\source\repos\Accounting_FormsFillingAssistant\Accounting_FormsFillingAssistant_Tests\test_Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C349056-79F2-41A6-BE5B-A14BD8744A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00FFEF89-4185-499A-9DC4-CFC4A790BC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1044" yWindow="2496" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{CF20FDDA-53BB-43C5-A81B-400DB4A1BBFE}"/>
   </bookViews>
